--- a/jada_server/flaskserver/apply/train_data.xlsx
+++ b/jada_server/flaskserver/apply/train_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\jada\jada_react\apply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\gj202311\12_기업-프로젝트\react_socket\적용\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>질문(Query)</t>
   </si>
@@ -328,9 +328,6 @@
   <si>
     <t>하이</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://gj.korchamhrd.net/FileDownload_src.jsp?server_file_path=/tisfile/sitebbs/webeditor/03000/2024/20240126123530668.png</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -458,6 +455,86 @@
   </si>
   <si>
     <t>/analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://gj.korchamhrd.net/FileDownload_src.jsp?server_file_path=/tisfile/sitebbs/webeditor/03000/2024/20240216170537118.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 가격 예측해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인가격 예측 페이지입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/coinpred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 누가 만들었어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자다가도생각이나조에서 만들었습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트코인 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인 가격알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상화폐 가격 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상화폐 가격 예측해줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 페이지 알려드릴게요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/boardList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하고싶어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물어보고싶은게있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 어떻게 써</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 작성하는 곳 알려줘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 작성하고싶어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -865,7 +942,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -882,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -899,10 +976,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -916,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -930,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -944,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -958,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -972,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -986,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -997,10 +1074,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1011,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1025,10 +1102,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1039,10 +1116,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1053,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1070,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1084,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1098,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1112,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1126,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1140,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1154,7 +1231,7 @@
         <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1168,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1179,10 +1256,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1196,7 +1273,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1210,7 +1287,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1224,7 +1301,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1238,7 +1315,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1252,7 +1329,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1266,7 +1343,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1280,7 +1357,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1294,7 +1371,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1308,7 +1385,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1322,7 +1399,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1336,7 +1413,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1350,7 +1427,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1364,7 +1441,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1375,10 +1452,10 @@
         <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1389,10 +1466,10 @@
         <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1406,7 +1483,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1420,7 +1497,7 @@
         <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1434,7 +1511,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1448,7 +1525,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
@@ -1459,10 +1536,10 @@
         <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1476,7 +1553,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1490,7 +1567,7 @@
         <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1501,10 +1578,10 @@
         <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1515,10 +1592,10 @@
         <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1532,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1546,7 +1623,7 @@
         <v>75</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1560,7 +1637,7 @@
         <v>75</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1574,7 +1651,7 @@
         <v>75</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1582,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1596,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1610,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1624,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="87" x14ac:dyDescent="0.4">
@@ -1638,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1652,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.4">
@@ -1666,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -1680,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -1694,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -1708,13 +1785,195 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
